--- a/AAII_Financials/Quarterly/QUTR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QUTR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
   <si>
     <t>QUTR</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -945,7 +945,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>-2400</v>
       </c>
       <c r="E17" s="3">
         <v>100</v>
@@ -1189,8 +1189,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>2400</v>
       </c>
       <c r="E26" s="3">
         <v>-300</v>
@@ -1218,8 +1218,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>2400</v>
       </c>
       <c r="E27" s="3">
         <v>-300</v>
@@ -1392,8 +1392,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>2400</v>
       </c>
       <c r="E33" s="3">
         <v>-300</v>
@@ -1450,8 +1450,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>2400</v>
       </c>
       <c r="E35" s="3">
         <v>-300</v>
@@ -1858,8 +1858,8 @@
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>4</v>
+      <c r="D52" s="3">
+        <v>0</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
@@ -1916,8 +1916,8 @@
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>4</v>
+      <c r="D54" s="3">
+        <v>0</v>
       </c>
       <c r="E54" s="3">
         <v>0</v>
@@ -1971,8 +1971,8 @@
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>4</v>
+      <c r="D57" s="3">
+        <v>0</v>
       </c>
       <c r="E57" s="3">
         <v>1800</v>
@@ -2000,8 +2000,8 @@
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>4</v>
+      <c r="D58" s="3">
+        <v>0</v>
       </c>
       <c r="E58" s="3">
         <v>600</v>
@@ -2598,8 +2598,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>2400</v>
       </c>
       <c r="E81" s="3">
         <v>-300</v>
@@ -2943,8 +2943,8 @@
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
+      <c r="D94" s="3">
+        <v>0</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -3159,8 +3159,8 @@
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>4</v>
+      <c r="D102" s="3">
+        <v>0</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
